--- a/public/phrase.xlsx
+++ b/public/phrase.xlsx
@@ -8,15 +8,186 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiwara/code/flash-phrase/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D24AF2A-E285-8D44-AFC1-5A5ED5DA7780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA417AF-33CB-674E-A043-8DA1CEDA3688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="680" windowWidth="28300" windowHeight="17240" xr2:uid="{CCA46822-AD95-8441-A56B-20552EF0B882}"/>
+    <workbookView xWindow="740" yWindow="1180" windowWidth="27900" windowHeight="16740" xr2:uid="{D8DEB910-364F-DC4E-B813-FE4F2A055B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>I bought a pen and two pencils.</t>
+  </si>
+  <si>
+    <t>私はペンを1本と鉛筆2本買いました。</t>
+  </si>
+  <si>
+    <t>I only have a little money left.</t>
+  </si>
+  <si>
+    <t>私はお金がわずかしか残っていません。</t>
+  </si>
+  <si>
+    <t>I’ll be back in fi ve minutes.</t>
+  </si>
+  <si>
+    <t>私は5分で戻ります。</t>
+  </si>
+  <si>
+    <t>She bought a loaf of bread at the bakery.</t>
+  </si>
+  <si>
+    <t>彼女はパン屋でパンを1斤買いました。</t>
+  </si>
+  <si>
+    <t>There are many people in front of the shop.</t>
+  </si>
+  <si>
+    <t>店の前にはたくさんの人がいます。</t>
+  </si>
+  <si>
+    <t>I like peaches and bananas.</t>
+  </si>
+  <si>
+    <t>私は桃とバナナが好きです。</t>
+  </si>
+  <si>
+    <t>He gave me some advice.</t>
+  </si>
+  <si>
+    <t>彼は私にいくつかの助言をくれました。</t>
+  </si>
+  <si>
+    <t>I’ll wash the dishes.</t>
+  </si>
+  <si>
+    <t>私は皿を洗います。</t>
+  </si>
+  <si>
+    <t>Ladies’ shoes are on the third floor.</t>
+  </si>
+  <si>
+    <t>女性用の靴は3階です。</t>
+  </si>
+  <si>
+    <t>This is Mary’s mother.</t>
+  </si>
+  <si>
+    <t>こちらはメアリーの母です。</t>
+  </si>
+  <si>
+    <t>Horses run fast.</t>
+  </si>
+  <si>
+    <t>馬は速く走ります。</t>
+  </si>
+  <si>
+    <t>Put in a pinch of salt.</t>
+  </si>
+  <si>
+    <t>塩をひとつまみ入れてください。</t>
+  </si>
+  <si>
+    <t>Please leave the chair where it is.</t>
+  </si>
+  <si>
+    <t>椅子はそのままにしておいてください。</t>
+  </si>
+  <si>
+    <t>He put some water in the glass.</t>
+  </si>
+  <si>
+    <t>彼はグラスに水を少し入れました。</t>
+  </si>
+  <si>
+    <t>She teaches us English.</t>
+  </si>
+  <si>
+    <t>彼女は私たちに英語を教えています。</t>
+  </si>
+  <si>
+    <t>He’s not wearing glasses.</t>
+  </si>
+  <si>
+    <t>彼は眼鏡をかけていません。</t>
+  </si>
+  <si>
+    <t>She doesn’t like tomatoes.</t>
+  </si>
+  <si>
+    <t>彼女はトマトが好きではありません。</t>
+  </si>
+  <si>
+    <t>Those boxes aren’t mine.</t>
+  </si>
+  <si>
+    <t>あの箱は私のものではありません。</t>
+  </si>
+  <si>
+    <t>The children didn’t come on time.</t>
+  </si>
+  <si>
+    <t>子供たちは時間どおりに来ませんでした。</t>
+  </si>
+  <si>
+    <t>Mr. Takahashi isn’t my boss.</t>
+  </si>
+  <si>
+    <t>高橋さんは私の上司ではありません。</t>
+  </si>
+  <si>
+    <t>How is your family?</t>
+  </si>
+  <si>
+    <t>ご家族はお元気ですか。</t>
+  </si>
+  <si>
+    <t>Where’s my toothbrush?</t>
+  </si>
+  <si>
+    <t>私の歯ブラシはどこですか。</t>
+  </si>
+  <si>
+    <t>Do you have a lot of homework today?</t>
+  </si>
+  <si>
+    <t>今日は宿題がたくさんありますか。</t>
+  </si>
+  <si>
+    <t>Could you pass me the scissors?</t>
+  </si>
+  <si>
+    <t>ハサミを私に取ってもらえますか。</t>
+  </si>
+  <si>
+    <t>Where can I leave my luggage?</t>
+  </si>
+  <si>
+    <t>荷物はどこに置いておくことができますか。</t>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,13 +1156,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2488485-B98C-2848-93D4-763B6BF3A5BE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7484A4FB-C4AE-3240-82DA-BDA984CE0319}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
